--- a/mock/test.xlsx
+++ b/mock/test.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Swing/github/i18njson/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Swing/github/i18njson/mock/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9480" yWindow="3260" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="2740" yWindow="3000" windowWidth="28160" windowHeight="8500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,21 +33,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>age</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <rPh sb="0" eb="1">
-      <t>xing'bie</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>年龄</t>
     <rPh sb="0" eb="1">
       <t>nian'ling</t>
@@ -55,31 +40,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellname.age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellname.sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellname.name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>translatekey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <rPh sb="0" eb="1">
+      <t>xibg'bie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>en</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sellname.age</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sellname.sex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sellname.name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>translatekey</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,20 +406,20 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -427,32 +427,32 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/mock/test.xlsx
+++ b/mock/test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>名字</t>
     <rPh sb="0" eb="1">
@@ -80,6 +80,24 @@
   </si>
   <si>
     <t>cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A模块en</t>
+    <rPh sb="1" eb="2">
+      <t>mo'kuai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A模块cn</t>
+    <rPh sb="1" eb="2">
+      <t>mo'kuai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxxx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -455,6 +473,50 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
